--- a/biology/Microbiologie/Swedmarkia_arenicola/Swedmarkia_arenicola.xlsx
+++ b/biology/Microbiologie/Swedmarkia_arenicola/Swedmarkia_arenicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Swedmarkia, Swedmarkiidae
-Swedmarkia arenicola, unique représentant du genre Swedmarkia et de la famille des Swedmarkiidae, est une espèce de Ciliés de la classe des Hypotrichea et de l’ordre des Euplotida[1].
+Swedmarkia arenicola, unique représentant du genre Swedmarkia et de la famille des Swedmarkiidae, est une espèce de Ciliés de la classe des Hypotrichea et de l’ordre des Euplotida.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Swedmarkia est dédié à Lévi Swedmark, spécialiste de la microfaune interstitielle des sables, décrite par les spécialistes sous le nom de « mesopsammon (de) », que Dragesco honore encore en lui dédiant deux autres espèces de ciliés : Geleia swedmarki Dragesco, 1954 (de la classe des Karyorelictea et l'ordre des Protoheterotrichida) et Tracheloraphis swedmarki Dragesco, 1960 (ordre des Trachelocercida)[2].    
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Swedmarkia est dédié à Lévi Swedmark, spécialiste de la microfaune interstitielle des sables, décrite par les spécialistes sous le nom de « mesopsammon (de) », que Dragesco honore encore en lui dédiant deux autres espèces de ciliés : Geleia swedmarki Dragesco, 1954 (de la classe des Karyorelictea et l'ordre des Protoheterotrichida) et Tracheloraphis swedmarki Dragesco, 1960 (ordre des Trachelocercida).    
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Fauré-Fremiet range le genre Swedmarkia parmi ce qu'il appelle « les ciliés hypotriches remarquables » et dont il cite les espèces Euplotes aberrans Dragesco, 1960 (famille des Gastrocirrhidae), Banyulsella viridis (famille des Kahliellidae), Lacazea ovalis (famille des Kahliellidae) et Swedmarkia arenicola.
-Cette dernière espèce est « caractérisée par une vaste dépression péristomienne, réalisant un type accentué de différenciation structurale, que l’on retrouve chez les genres Gastrocirrhus Lepsi et Euplotidium Noland » (deux genres de la famille des Gastrocirrhidae)[3].
+Cette dernière espèce est « caractérisée par une vaste dépression péristomienne, réalisant un type accentué de différenciation structurale, que l’on retrouve chez les genres Gastrocirrhus Lepsi et Euplotidium Noland » (deux genres de la famille des Gastrocirrhidae).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre vit dans le sable marin[4] comme l'épithète spécifique de l'espèce type Swedmarkia arenicola l'indique[4] et a été identifié en Méditerranée (Banyuls-sur-Mer) et dans la Manche (Roscoff).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre vit dans le sable marin comme l'épithète spécifique de l'espèce type Swedmarkia arenicola l'indique et a été identifié en Méditerranée (Banyuls-sur-Mer) et dans la Manche (Roscoff).
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce, unique en son genre, a été décrite en 1954 par le biologiste français Jean Dragesco[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce, unique en son genre, a été décrite en 1954 par le biologiste français Jean Dragesco.
 </t>
         </is>
       </c>
